--- a/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>37,23; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>61,82; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>79,97; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>90,29; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>90,59; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>84,66; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>92,23; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>92,01; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>97,92; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>95,1; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,77%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>83,35; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>86,5; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>90,97; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>93,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>87,99; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>92,88; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>98,21; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>97,96; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>95,86; 99,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>98,84; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>99,05; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>91,87; 98,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,2</t>
+          <t>98,8; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>96,56; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>95,56; 98,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>99,41; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>98,38; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,23; 100,0</t>
+          <t>79,29; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,82; 100,0</t>
+          <t>90,34; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>97,23; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>97,69; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>90,59; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,1; 100</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,97; 100,0</t>
+          <t>84,66; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>92,23; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,29; 100,0</t>
+          <t>92,01; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>97,92; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100</t>
+          <t>95,1; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,77%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,59; 100,0</t>
+          <t>83,35; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,84; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,66; 100,0</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,93; 100</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,23; 100,0</t>
+          <t>86,5; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,01; 100,0</t>
+          <t>90,97; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,92; 100</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,1; 100,0</t>
+          <t>93,74; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,35; 100,0</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,93; 100</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,85; 100</t>
+          <t>87,99; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,5; 100,0</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,97; 100,0</t>
+          <t>92,88; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>98,21; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,74; 100,0</t>
+          <t>97,96; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1097,12 +1097,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>95,86; 99,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>98,84; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>99,05; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,99; 100,0</t>
+          <t>91,87; 98,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>96,25; 100</t>
+          <t>98,8; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,22; 100</t>
+          <t>96,56; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,88; 100,0</t>
+          <t>95,56; 98,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,21; 100</t>
+          <t>99,41; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>97,96; 100</t>
+          <t>98,38; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>98,44%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>96,77%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>98,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>95,86; 99,56</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>98,84; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>99,05; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>91,87; 98,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>98,8; 100</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>96,56; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>95,56; 98,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>99,41; 100</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>98,38; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,29; 100,0</t>
+          <t>79,36; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,34; 100,0</t>
+          <t>90,21; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,59; 100,0</t>
+          <t>92,37; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,66; 100,0</t>
+          <t>86,98; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,23; 100,0</t>
+          <t>90,56; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,01; 100,0</t>
+          <t>93,13; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,1; 100,0</t>
+          <t>95,41; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,35; 100,0</t>
+          <t>83,75; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,5; 100,0</t>
+          <t>86,54; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,97; 100,0</t>
+          <t>91,22; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,74; 100,0</t>
+          <t>93,82; 100,0</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,99; 100,0</t>
+          <t>85,35; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,88; 100,0</t>
+          <t>93,28; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,56</t>
+          <t>96,07; 99,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,87; 98,72</t>
+          <t>92,95; 98,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>96,56; 100,0</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,99</t>
+          <t>95,59; 98,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>98,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el corazón fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37714</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33597</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30896</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39577</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42982</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68610</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>73174</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86668</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35957; 37714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31594; 33597</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41830; 43686</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26053; 32828</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37588; 39577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40877; 42982</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63635; 70542</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71143; 73174</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84668; 86668</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56841</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49553</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55727</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48721</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>50123</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>52173</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105562</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99676</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107900</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53492; 57908</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47494; 49553</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53856; 55727</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43525; 50041</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48084; 50123</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>48111; 53127</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100530; 107949</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>97600; 99676</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>103858; 108854</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35156</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36225</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47043</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30659</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28160</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40138</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65815</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64385</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87181</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30846; 36829</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34192; 36225</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45129; 47043</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28773; 30659</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26173; 28160</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35672; 41221</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61563; 67488</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62331; 64385</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82812; 88264</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43106</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59247</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53952</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50673</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52601</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47768</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>93779</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>111848</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101720</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41457; 43106</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>57258; 59247</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52075; 53952</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45059; 52792</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>50628; 52601</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45487; 47768</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>89453; 95898</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>109844; 111848</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>99646; 101720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>172817</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>178622</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>200408</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>160949</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>170460</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>183062</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>333765</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>349083</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>383469</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>168664; 174792</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>176558; 178622</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>198495; 200408</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>154600; 164461</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>168416; 170460</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>178204; 185099</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>326786; 338266</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>347021; 349083</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>378372; 385506</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>